--- a/biology/Botanique/Viorne_tin/Viorne_tin.xlsx
+++ b/biology/Botanique/Viorne_tin/Viorne_tin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viburnum tinus
-La viorne tin (Viburnum tinus L.), aussi appelée laurier-tin ou laurentin, est un arbrisseau des régions méditerranéennes de la famille des Adoxacées. Il appartient au genre Viburnum, autrefois classé dans la famille des Caprifoliacées selon la classification classique de Cronquist (1981)[1].
+La viorne tin (Viburnum tinus L.), aussi appelée laurier-tin ou laurentin, est un arbrisseau des régions méditerranéennes de la famille des Adoxacées. Il appartient au genre Viburnum, autrefois classé dans la famille des Caprifoliacées selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste (rarement un petit arbre) pouvant atteindre 2–7 m de hauteur et 3 m de large, avec une couronne arrondie dense.  
 Le fruit, d'un bleu-noir foncé, est une drupe de 5–7 mm de long.
-Les feuilles sont persistantes (persistant 2-3 ans), ovales à elliptiques, portées en paires opposées, de 4-10 cm de long et de 2-4 cm de large, avec une marge entière. Les feuilles ont des domaties où des insectes prédateurs et acariens microbicides peuvent être logés[2].
+Les feuilles sont persistantes (persistant 2-3 ans), ovales à elliptiques, portées en paires opposées, de 4-10 cm de long et de 2-4 cm de large, avec une marge entière. Les feuilles ont des domaties où des insectes prédateurs et acariens microbicides peuvent être logés.
 Les fleurs  sont petites, blanches ou légèrement rosées. Elles sont regroupées en corymbes resserrés en forme d'ombelles, produites à partir de bourgeons rose-rouge, denses cymes de 5–10 cm de diamètre en hiver. La floraison intervient tôt, en fin d'hiver et au début du printemps. Les fleurs parfumées sont bisexuées et pentamères. La pollinisation est effectuée par les insectes. 
 Les fruits charnus, globuleux, de 5–7 mm de diamètre, sont luisants, de couleur noir bleuâtre à maturité, vers mai-juin. Ce sont des drupes, dont le noyau contient une seule graine.
 </t>
@@ -547,11 +561,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est originaire du bassin méditerranéen : Afrique du Nord (Algérie, Maroc, Tunisie, Libye), Proche-Orient (Israël, Liban, Turquie), Europe méridionale (Portugal, Espagne, France, Italie, Albanie, Grèce). Se trouve également dans les Açores et les îles Canaries.
 La plante est répandue ailleurs par la culture ; elle est assez fréquente dans les jardins, appréciée pour sa floraison spectaculaire.
-Ses rejetons s’en échappent parfois pour s’intégrer dans des forêts caducifoliées dans un milieux doux et humide, au sud du Tessin[3].
+Ses rejetons s’en échappent parfois pour s’intégrer dans des forêts caducifoliées dans un milieux doux et humide, au sud du Tessin.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits mûrs ne présentent pas d'intérêt alimentaire. Ils sont purgatifs[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits mûrs ne présentent pas d'intérêt alimentaire. Ils sont purgatifs.
 </t>
         </is>
       </c>
@@ -611,15 +629,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Viburnum tinus a été décrite  par le naturaliste suédois Carl von Linné en 1753[5].
-Noms vernaculaires
-Viorne-tin
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Viburnum tinus a été décrite  par le naturaliste suédois Carl von Linné en 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Viorne_tin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viorne_tin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Viorne-tin
 Laurier-tin. On rencontre parfois l'orthographe « laurier-thym », cependant non validée, ce végétal n'étant pas apparenté au thym.
-Laurentin
-Taxinomie
-Liste des sous-espèces
+Laurentin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Viorne_tin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viorne_tin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Viburnum tinus tinus. Pourtour méditerranéen.
 Viburnum tinus rigidum (syn. V. rigidum). Îles Canaries.
 Viburnum tinus subcordatum. Açores.
@@ -629,67 +718,77 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Viorne_tin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Viorne_tin</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>La Viorne tin et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisation
-Elle est cultivée comme plante ornementale pour son feuillage persistant et sa floraison hivernale, en particulier dans les haies, et est souvent cultivée en pots et conduite en haute tige sous forme de boule arrondie[4]. Il en existe des variétés à feuilles panachées.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est cultivée comme plante ornementale pour son feuillage persistant et sa floraison hivernale, en particulier dans les haies, et est souvent cultivée en pots et conduite en haute tige sous forme de boule arrondie. Il en existe des variétés à feuilles panachées.
 Le laurier-tin a entre autres l'avantage d'avoir des feuilles domatiées qui abritent de nombreux acariens phytoseides, connus pour être d'excellents prédateurs d'acariens en vergers.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Viorne_tin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Viorne_tin</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, le Laurier tin était le nom attribué au 6e jour du mois de pluviôse[6].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Laurier tin était le nom attribué au 6e jour du mois de pluviôse.
 Sur les autres projets Wikimedia :
 Viorne tin, sur Wikimedia CommonsViorne tin, sur Wikispecieslaurier-tin, sur le Wiktionnaire
 </t>
